--- a/jugadores_baloncesto.xlsx
+++ b/jugadores_baloncesto.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1F7AF0BE02112C43/JPM/Desarrollo de interfaces/UT2/Jorge_Baloncesto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1f7af0be02112c43/JPM/Desarrollo de interfaces/UT2/JPM_Baloncesto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_DC34A739827E2873F247E91157EAAE4A24255BD8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A460F64-E8AB-434B-B8FC-6AAEF4126C21}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="11_DC34A739827E2873F247E91157EAAE4A24255BD8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B9819D9-27E8-4C9D-9D91-9790EC2DCC83}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version1" sheetId="1" r:id="rId1"/>
-    <sheet name="Version1_5" r:id="rId5" sheetId="2"/>
+    <sheet name="Version1_5" sheetId="2" r:id="rId2"/>
+    <sheet name="Version2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
   <si>
     <t>Jugador</t>
   </si>
@@ -62,19 +63,49 @@
     <t>TS%</t>
   </si>
   <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Anatoliy</t>
+  </si>
+  <si>
+    <t>Rebotes</t>
+  </si>
+  <si>
+    <t>Asistencias</t>
+  </si>
+  <si>
+    <t>Tapones a favor</t>
+  </si>
+  <si>
+    <t>Tapones en contra</t>
+  </si>
+  <si>
+    <t>Robos</t>
+  </si>
+  <si>
+    <t>Perdidas</t>
+  </si>
+  <si>
+    <t>Valoracion</t>
+  </si>
+  <si>
+    <t>Lebron James</t>
+  </si>
+  <si>
+    <t>Sanz</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>Anatoliy</t>
+    <t>Prueba</t>
   </si>
 </sst>
 </file>
@@ -82,7 +113,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -91,40 +122,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="58"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="58"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Arial"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="58"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="58"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Arial"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="58"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="58"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-      <color indexed="12"/>
+      <family val="2"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -147,12 +173,12 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="solid">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
@@ -169,22 +195,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -503,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
@@ -578,206 +601,547 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="1">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s" s="1">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s" s="1">
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>57.14285714285714</v>
-      </c>
-      <c r="I2" t="n">
-        <v>64.28571428571429</v>
-      </c>
-      <c r="J2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>57.142857142857139</v>
+      </c>
+      <c r="I2">
+        <v>64.285714285714292</v>
+      </c>
+      <c r="J2">
         <v>65.78947368421052</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>81.81818181818183</v>
-      </c>
-      <c r="I3" t="n">
-        <v>95.45454545454545</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>81.818181818181827</v>
+      </c>
+      <c r="I3">
+        <v>95.454545454545453</v>
+      </c>
+      <c r="J3">
         <v>102.73972602739727</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="I4">
+        <v>41.666666666666671</v>
+      </c>
+      <c r="J4">
+        <v>40.983606557377051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="I4" t="n">
-        <v>41.66666666666667</v>
-      </c>
-      <c r="J4" t="n">
-        <v>40.98360655737705</v>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <v>90</v>
+      </c>
+      <c r="J5">
+        <v>90.206185567010309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="2">
+        <v>63.073593073593074</v>
+      </c>
+      <c r="I6" s="2">
+        <v>72.851731601731601</v>
+      </c>
+      <c r="J6" s="2">
+        <v>74.929747958998789</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.21875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.21875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>34</v>
+      </c>
+      <c r="O2">
+        <v>84.615384615384613</v>
+      </c>
+      <c r="P2">
+        <v>96.15384615384616</v>
+      </c>
+      <c r="Q2">
+        <v>103.73443983402488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>23</v>
+      </c>
+      <c r="O3">
+        <v>70.588235294117652</v>
+      </c>
+      <c r="P3">
+        <v>76.470588235294116</v>
+      </c>
+      <c r="Q3">
+        <v>72.629969418960243</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>46.153846153846153</v>
+      </c>
+      <c r="P4">
+        <v>50</v>
+      </c>
+      <c r="Q4">
+        <v>49.559471365638771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B5" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="D5" t="n">
         <v>1.0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="F5" t="n">
         <v>1.0</v>
       </c>
       <c r="G5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.0</v>
       </c>
-      <c r="H5" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>90.0</v>
-      </c>
       <c r="J5" t="n">
-        <v>90.20618556701031</v>
+        <v>2.0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>46.15384615384615</v>
+      </c>
+      <c r="P5" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>49.55947136563877</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="B6" t="n" s="8">
+      <c r="A6" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="B6" t="n" s="7">
+        <v>5.0</v>
+      </c>
+      <c r="C6" t="n" s="7">
+        <v>6.75</v>
+      </c>
+      <c r="D6" t="n" s="7">
         <v>2.0</v>
       </c>
-      <c r="C6" t="n" s="8">
+      <c r="E6" t="n" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="F6" t="n" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="G6" t="n" s="7">
         <v>2.75</v>
       </c>
-      <c r="D6" t="n" s="8">
-        <v>1.25</v>
-      </c>
-      <c r="E6" t="n" s="8">
+      <c r="H6" t="n" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="I6" t="n" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="J6" t="n" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="K6" t="n" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="L6" t="n" s="7">
         <v>3.0</v>
       </c>
-      <c r="F6" t="n" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="G6" t="n" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="H6" t="n" s="8">
-        <v>63.073593073593074</v>
-      </c>
-      <c r="I6" t="n" s="8">
-        <v>72.8517316017316</v>
-      </c>
-      <c r="J6" t="n" s="8">
-        <v>74.92974795899879</v>
+      <c r="M6" t="n" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="N6" t="n" s="7">
+        <v>15.75</v>
+      </c>
+      <c r="O6" t="n" s="7">
+        <v>61.87782805429865</v>
+      </c>
+      <c r="P6" t="n" s="7">
+        <v>68.15610859728507</v>
+      </c>
+      <c r="Q6" t="n" s="7">
+        <v>68.87083799606567</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>